--- a/static/tmp/table.xlsx
+++ b/static/tmp/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>ФИО</t>
   </si>
@@ -23,6 +23,54 @@
   </si>
   <si>
     <t>Дата и время прибытия</t>
+  </si>
+  <si>
+    <t>Чуянов Роман Александрович</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Закирова Диана Алмазовна</t>
+  </si>
+  <si>
+    <t>Гимадиева Дарья Денисовна</t>
+  </si>
+  <si>
+    <t>Гущин Вадим Алексеевич</t>
+  </si>
+  <si>
+    <t>Кордюшев Андрей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Беглова Алина Сергеевна</t>
+  </si>
+  <si>
+    <t>Гайфуллина Камилла Ахтямовна</t>
+  </si>
+  <si>
+    <t>Хазиева Эвелина Марсовна</t>
+  </si>
+  <si>
+    <t>Хазиева Аделина Марсовна</t>
+  </si>
+  <si>
+    <t>Тимофеева Карина Александровна</t>
+  </si>
+  <si>
+    <t>Горин Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Хайбрахманов Камиль Эдуардович</t>
+  </si>
+  <si>
+    <t>Глазунов Георгий Алексеевич</t>
+  </si>
+  <si>
+    <t>Шабанов Амирхан Рамилевич</t>
+  </si>
+  <si>
+    <t>Наумов Данила Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -363,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +428,126 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/tmp/table.xlsx
+++ b/static/tmp/table.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10" sheetId="1" r:id="rId1"/>
+    <sheet name="9А" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>ФИО</t>
   </si>
@@ -551,4 +552,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>